--- a/SubjectExplanation.xlsx
+++ b/SubjectExplanation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>Subject Name</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Applied Machine Learning</t>
   </si>
   <si>
-    <t>Atul's Suggestion</t>
-  </si>
-  <si>
     <t>Open Source</t>
   </si>
   <si>
@@ -77,6 +74,76 @@
   </si>
   <si>
     <t>GO</t>
+  </si>
+  <si>
+    <t>Service Oriented Computing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course Objective </t>
+  </si>
+  <si>
+    <t>Check handout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Content : 
+API based
+Best for developers
+Should be easy
+Type : </t>
+  </si>
+  <si>
+    <t>Atul's Recommendation</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>SQM</t>
+  </si>
+  <si>
+    <t>Usability</t>
+  </si>
+  <si>
+    <t>Porject management</t>
+  </si>
+  <si>
+    <t>Scalable Services</t>
+  </si>
+  <si>
+    <t>Content : SOC + CC
+Microservices
+Communication between them
+Containers
+Monitoring
+Kubernetes
+Assignment (end to end app development) - wont take much time</t>
+  </si>
+  <si>
+    <t>Content : Overview of Software Engineering, Project Management Concepts, Software Process &amp; Project Metrics,
+Software Project Planning, Project Evaluation, Selection of an appropriate project approach, Software site,
+effort and cost Estimation, Risk Analysis &amp; Management, Project Scheduling &amp; Tracking, Activity
+Planning, Resource Allocation, Project Monitoring &amp; Control, Managing Contracts, Managing People and
+Organizing teams, Software Quality Assurance, Software Configuration Management
+Easy, 
+Theriotical</t>
+  </si>
+  <si>
+    <t>Secure Software Engineering</t>
+  </si>
+  <si>
+    <t>Content : Looks like theoretical
+OWASP
+Few topics are already covered like SQL injection,  XSS, OWASP, testing for security</t>
+  </si>
+  <si>
+    <t>Can GO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Content : </t>
+  </si>
+  <si>
+    <t>Content : Easy
+Quality related topics</t>
   </si>
 </sst>
 </file>
@@ -124,7 +191,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -133,6 +200,9 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -154,13 +224,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D4" totalsRowShown="0" dataDxfId="1">
-  <autoFilter ref="A1:D4"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E10" totalsRowShown="0" dataDxfId="5">
+  <autoFilter ref="A1:E10"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="Subject Name" dataDxfId="4"/>
     <tableColumn id="2" name="Difficulty" dataDxfId="3"/>
     <tableColumn id="3" name="Comments" dataDxfId="2"/>
-    <tableColumn id="4" name="Atul's Suggestion" dataDxfId="0"/>
+    <tableColumn id="4" name="Atul's Recommendation" dataDxfId="1"/>
+    <tableColumn id="5" name="Course Objective " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -429,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -441,9 +512,10 @@
     <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="87.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -454,10 +526,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -470,8 +545,11 @@
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -484,20 +562,122 @@
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SubjectExplanation.xlsx
+++ b/SubjectExplanation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>Subject Name</t>
   </si>
@@ -131,19 +131,25 @@
     <t>Secure Software Engineering</t>
   </si>
   <si>
+    <t xml:space="preserve">Content : </t>
+  </si>
+  <si>
     <t>Content : Looks like theoretical
 OWASP
-Few topics are already covered like SQL injection,  XSS, OWASP, testing for security</t>
-  </si>
-  <si>
-    <t>Can GO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Content : </t>
+Few topics are already covered like SQL injection,  XSS, OWASP, testing for security
+Assignment also easy
+Very gentle and humble Prof
+scoring</t>
+  </si>
+  <si>
+    <t>easy</t>
   </si>
   <si>
     <t>Content : Easy
-Quality related topics</t>
+Quality related topics
+Thoery
+Only Quizzes
+Scoring</t>
   </si>
 </sst>
 </file>
@@ -224,8 +230,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E10" totalsRowShown="0" dataDxfId="5">
-  <autoFilter ref="A1:E10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E11" totalsRowShown="0" dataDxfId="5">
+  <autoFilter ref="A1:E11"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Subject Name" dataDxfId="4"/>
     <tableColumn id="2" name="Difficulty" dataDxfId="3"/>
@@ -500,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,7 +638,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -657,27 +663,36 @@
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SubjectExplanation.xlsx
+++ b/SubjectExplanation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>Subject Name</t>
   </si>
@@ -85,13 +85,6 @@
     <t>Check handout</t>
   </si>
   <si>
-    <t xml:space="preserve">Content : 
-API based
-Best for developers
-Should be easy
-Type : </t>
-  </si>
-  <si>
     <t>Atul's Recommendation</t>
   </si>
   <si>
@@ -102,9 +95,6 @@
   </si>
   <si>
     <t>Usability</t>
-  </si>
-  <si>
-    <t>Porject management</t>
   </si>
   <si>
     <t>Scalable Services</t>
@@ -142,14 +132,21 @@
 scoring</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
     <t>Content : Easy
 Quality related topics
 Thoery
 Only Quizzes
 Scoring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Content : 
+REST API based
+Best for developers
+Should be easy
+Type : </t>
+  </si>
+  <si>
+    <t>Project management</t>
   </si>
 </sst>
 </file>
@@ -508,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -517,7 +514,7 @@
     <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="87.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -532,7 +529,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
@@ -597,7 +594,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -608,11 +605,11 @@
     </row>
     <row r="6" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -623,13 +620,13 @@
     </row>
     <row r="7" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -640,13 +637,13 @@
     </row>
     <row r="8" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -657,13 +654,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
@@ -672,13 +669,13 @@
     </row>
     <row r="10" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>

--- a/SubjectExplanation.xlsx
+++ b/SubjectExplanation.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
   <si>
     <t>Subject Name</t>
   </si>
@@ -121,9 +122,6 @@
     <t>Secure Software Engineering</t>
   </si>
   <si>
-    <t xml:space="preserve">Content : </t>
-  </si>
-  <si>
     <t>Content : Looks like theoretical
 OWASP
 Few topics are already covered like SQL injection,  XSS, OWASP, testing for security
@@ -148,13 +146,35 @@
   <si>
     <t>Project management</t>
   </si>
+  <si>
+    <t>My Shortlisted Subjects</t>
+  </si>
+  <si>
+    <t>Finalized</t>
+  </si>
+  <si>
+    <t>Content : Theoretical 
+User Interface
+Human-Device Interface
+Interaction Design
+User Experience
+Personas</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -182,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -190,6 +210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -594,7 +615,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -605,7 +626,7 @@
     </row>
     <row r="6" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
@@ -643,7 +664,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -652,7 +673,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -660,7 +681,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
@@ -675,7 +696,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
@@ -698,4 +719,62 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/SubjectExplanation.xlsx
+++ b/SubjectExplanation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="11568"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="11568" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
   <si>
     <t>Subject Name</t>
   </si>
@@ -35,14 +35,6 @@
   </si>
   <si>
     <t>High</t>
-  </si>
-  <si>
-    <t>Content : Very rich, vast and good for RDBMS understanding
-Basically prefered for developers who want to know RDBMS thouroughly.
-Time consuming 
-Need to study 
-Type : numericals, not theoretical topic
-Assignment : People are saying full app needs to be developed with frontend, API, backend and DB Design</t>
   </si>
   <si>
     <t xml:space="preserve">Content :
@@ -130,13 +122,6 @@
 scoring</t>
   </si>
   <si>
-    <t>Content : Easy
-Quality related topics
-Thoery
-Only Quizzes
-Scoring</t>
-  </si>
-  <si>
     <t xml:space="preserve">Content : 
 REST API based
 Best for developers
@@ -159,6 +144,39 @@
 Interaction Design
 User Experience
 Personas</t>
+  </si>
+  <si>
+    <t>Content : Easy
+Quality related topics
+Thoery
+Keyword answers
+PPT is enough
+Only Quizzes
+Scoring</t>
+  </si>
+  <si>
+    <t>Content : Very rich, vast and good for RDBMS understanding
+Basically prefered for developers who want to know RDBMS thouroughly.
+Time consuming 
+Need to study 
+Time bound quizzes
+Type : numericals, not theoretical topic
+Assignment : People are saying full app needs to be developed with frontend, API, backend and DB Design</t>
+  </si>
+  <si>
+    <t>Middleware Tech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mainly for Programmers
+JAVA Coding
+For JAVA Developers, easy
+client server invocation 
+EC3 KORBA
+Coding is required (~20 marks)
+</t>
+  </si>
+  <si>
+    <t>Only JAVA Developers</t>
   </si>
 </sst>
 </file>
@@ -190,7 +208,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -198,11 +216,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -211,6 +240,10 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,13 +583,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -564,152 +597,162 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E11" s="2"/>
     </row>
   </sheetData>
@@ -723,10 +766,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C7"/>
+  <dimension ref="A2:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -734,43 +777,57 @@
     <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>0.9</v>
+      </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/SubjectExplanation.xlsx
+++ b/SubjectExplanation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="64">
   <si>
     <t>Subject Name</t>
   </si>
@@ -178,12 +178,102 @@
   <si>
     <t>Only JAVA Developers</t>
   </si>
+  <si>
+    <t>SE ZG583</t>
+  </si>
+  <si>
+    <t>SCALABLE SERVICES</t>
+  </si>
+  <si>
+    <t>23/09/2023 (FN)</t>
+  </si>
+  <si>
+    <t>07/10/2023 (FN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25/11/2023 (FN) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">02/12/2023 (FN) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE ZG533 </t>
+  </si>
+  <si>
+    <t>SERVICE ORIENTED COMPUTING</t>
+  </si>
+  <si>
+    <t>22/09/2023 (AN)</t>
+  </si>
+  <si>
+    <t>06/10/2023 (AN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24/11/2023 (AN) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/12/2023 (AN) </t>
+  </si>
+  <si>
+    <t>SE ZG587</t>
+  </si>
+  <si>
+    <t>OPEN SOURCE SOFTWARE ENGG</t>
+  </si>
+  <si>
+    <t>22/09/2023 (FN)</t>
+  </si>
+  <si>
+    <t>06/10/2023 (FN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24/11/2023 (FN) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/12/2023 (FN) </t>
+  </si>
+  <si>
+    <t>SE ZG585</t>
+  </si>
+  <si>
+    <t>CROSS PLATFORM APP DEVELOPMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE ZG566 </t>
+  </si>
+  <si>
+    <t>SECURE SOFTWARE ENGINEERING</t>
+  </si>
+  <si>
+    <t>23/09/2023 (EN)</t>
+  </si>
+  <si>
+    <t>07/10/2023 (EN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25/11/2023 (EN) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">02/12/2023 (EN) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE ZG622 </t>
+  </si>
+  <si>
+    <t>SOFTWARE PROJECT MANAGEMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE ZG661 </t>
+  </si>
+  <si>
+    <t>SOFTWARE QUALITY MANAGEMENT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,16 +289,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -227,11 +341,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -244,8 +374,20 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
@@ -766,23 +908,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C8"/>
+  <dimension ref="A2:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="L13" activeCellId="1" sqref="E3:L9 L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -792,8 +938,32 @@
       <c r="C3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E3" s="6">
+        <v>416</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -803,8 +973,32 @@
       <c r="C4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E4" s="6">
+        <v>410</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="8">
+        <v>6</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>0.9</v>
       </c>
@@ -814,20 +1008,142 @@
       <c r="C5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E5" s="6">
+        <v>419</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="8">
+        <v>5</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E6" s="9">
+        <v>417</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="9">
+        <v>5</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E7" s="6">
+        <v>413</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="8">
+        <v>7</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>25</v>
+      </c>
+      <c r="E8" s="6">
+        <v>421</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E9" s="6">
+        <v>424</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="8">
+        <v>7</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/SubjectExplanation.xlsx
+++ b/SubjectExplanation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="11568" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="11568"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="58">
   <si>
     <t>Subject Name</t>
   </si>
@@ -185,95 +185,77 @@
     <t>SCALABLE SERVICES</t>
   </si>
   <si>
-    <t>23/09/2023 (FN)</t>
-  </si>
-  <si>
-    <t>07/10/2023 (FN)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25/11/2023 (FN) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">02/12/2023 (FN) </t>
-  </si>
-  <si>
     <t xml:space="preserve">SE ZG533 </t>
   </si>
   <si>
     <t>SERVICE ORIENTED COMPUTING</t>
   </si>
   <si>
-    <t>22/09/2023 (AN)</t>
-  </si>
-  <si>
-    <t>06/10/2023 (AN)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24/11/2023 (AN) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">01/12/2023 (AN) </t>
-  </si>
-  <si>
     <t>SE ZG587</t>
   </si>
   <si>
     <t>OPEN SOURCE SOFTWARE ENGG</t>
   </si>
   <si>
-    <t>22/09/2023 (FN)</t>
-  </si>
-  <si>
-    <t>06/10/2023 (FN)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24/11/2023 (FN) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">01/12/2023 (FN) </t>
-  </si>
-  <si>
-    <t>SE ZG585</t>
-  </si>
-  <si>
-    <t>CROSS PLATFORM APP DEVELOPMENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SE ZG566 </t>
-  </si>
-  <si>
     <t>SECURE SOFTWARE ENGINEERING</t>
   </si>
   <si>
-    <t>23/09/2023 (EN)</t>
-  </si>
-  <si>
-    <t>07/10/2023 (EN)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25/11/2023 (EN) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">02/12/2023 (EN) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SE ZG622 </t>
-  </si>
-  <si>
-    <t>SOFTWARE PROJECT MANAGEMENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SE ZG661 </t>
-  </si>
-  <si>
     <t>SOFTWARE QUALITY MANAGEMENT</t>
+  </si>
+  <si>
+    <t>15/03/2024 (FN)</t>
+  </si>
+  <si>
+    <t>29/03/2024 (FN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/05/2024 (FN) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24/05/2024 (FN) </t>
+  </si>
+  <si>
+    <t>15/03/2024 (AN)</t>
+  </si>
+  <si>
+    <t>29/03/2024 (AN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/05/2024 (AN) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24/05/2024 (AN) </t>
+  </si>
+  <si>
+    <t>16/03/2024 (FN)</t>
+  </si>
+  <si>
+    <t>30/03/2024 (FN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/05/2024 (FN) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25/05/2024 (FN) </t>
+  </si>
+  <si>
+    <t>16/03/2024 (EN)</t>
+  </si>
+  <si>
+    <t>30/03/2024 (EN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/05/2024 (EN) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25/05/2024 (EN) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,6 +289,17 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -361,7 +354,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -385,12 +378,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -423,14 +429,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E11" totalsRowShown="0" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E11" totalsRowShown="0" dataDxfId="6">
   <autoFilter ref="A1:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Subject Name" dataDxfId="4"/>
-    <tableColumn id="2" name="Difficulty" dataDxfId="3"/>
-    <tableColumn id="3" name="Comments" dataDxfId="2"/>
-    <tableColumn id="4" name="Atul's Recommendation" dataDxfId="1"/>
-    <tableColumn id="5" name="Course Objective " dataDxfId="0"/>
+    <tableColumn id="1" name="Subject Name" dataDxfId="5"/>
+    <tableColumn id="2" name="Difficulty" dataDxfId="4"/>
+    <tableColumn id="3" name="Comments" dataDxfId="3"/>
+    <tableColumn id="4" name="Atul's Recommendation" dataDxfId="2"/>
+    <tableColumn id="5" name="Course Objective " dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -701,13 +707,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.109375" customWidth="1"/>
     <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="87.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
@@ -908,10 +914,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L9"/>
+  <dimension ref="A2:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" activeCellId="1" sqref="E3:L9 L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -919,16 +925,16 @@
     <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -944,26 +950,23 @@
       <c r="F3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="8">
-        <v>1</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -977,28 +980,25 @@
         <v>410</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="8">
-        <v>6</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>0.9</v>
       </c>
@@ -1012,141 +1012,93 @@
         <v>419</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="8">
-        <v>5</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="9">
-        <v>417</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="9">
-        <v>5</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="6">
-        <v>413</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="I7" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H7" s="8">
-        <v>7</v>
-      </c>
-      <c r="I7" s="8" t="s">
+      <c r="J7" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="K7" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="K7" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="6">
-        <v>421</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E9" s="6">
-        <v>424</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="8">
-        <v>7</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>59</v>
-      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/SubjectExplanation.xlsx
+++ b/SubjectExplanation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="11568"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="11568" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="58">
   <si>
     <t>Subject Name</t>
   </si>
@@ -707,15 +707,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.109375" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="87.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="94.33203125" customWidth="1"/>
     <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
   </cols>
@@ -805,7 +805,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -916,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1034,6 +1034,9 @@
       <c r="B6" t="s">
         <v>22</v>
       </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
       <c r="E6" s="9"/>
       <c r="F6" s="10"/>
       <c r="G6" s="11" t="s">

--- a/SubjectExplanation.xlsx
+++ b/SubjectExplanation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
   <si>
     <t>Subject Name</t>
   </si>
@@ -179,21 +179,12 @@
     <t>Only JAVA Developers</t>
   </si>
   <si>
-    <t>SE ZG583</t>
-  </si>
-  <si>
     <t>SCALABLE SERVICES</t>
   </si>
   <si>
-    <t xml:space="preserve">SE ZG533 </t>
-  </si>
-  <si>
     <t>SERVICE ORIENTED COMPUTING</t>
   </si>
   <si>
-    <t>SE ZG587</t>
-  </si>
-  <si>
     <t>OPEN SOURCE SOFTWARE ENGG</t>
   </si>
   <si>
@@ -249,6 +240,18 @@
   </si>
   <si>
     <t xml:space="preserve">25/05/2024 (EN) </t>
+  </si>
+  <si>
+    <t>SEZG583</t>
+  </si>
+  <si>
+    <t>SEZG533</t>
+  </si>
+  <si>
+    <t>SEZG587</t>
+  </si>
+  <si>
+    <t>SEZG566</t>
   </si>
 </sst>
 </file>
@@ -354,7 +357,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -377,7 +380,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -917,7 +919,7 @@
   <dimension ref="A2:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F6" sqref="F6:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -947,23 +949,23 @@
       <c r="E3" s="6">
         <v>416</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="11" t="s">
         <v>50</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -979,23 +981,23 @@
       <c r="E4" s="6">
         <v>410</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="12" t="s">
+      <c r="F4" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="11" t="s">
         <v>46</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1011,23 +1013,23 @@
       <c r="E5" s="6">
         <v>419</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="11" t="s">
+      <c r="F5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="I5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="11" t="s">
         <v>42</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1038,21 +1040,23 @@
         <v>27</v>
       </c>
       <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="12" t="s">
+      <c r="F6" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1061,20 +1065,20 @@
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="12" t="s">
+      <c r="G7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">

--- a/SubjectExplanation.xlsx
+++ b/SubjectExplanation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="80">
   <si>
     <t>Subject Name</t>
   </si>
@@ -191,9 +191,6 @@
     <t>SECURE SOFTWARE ENGINEERING</t>
   </si>
   <si>
-    <t>SOFTWARE QUALITY MANAGEMENT</t>
-  </si>
-  <si>
     <t>15/03/2024 (FN)</t>
   </si>
   <si>
@@ -252,13 +249,79 @@
   </si>
   <si>
     <t>SEZG566</t>
+  </si>
+  <si>
+    <t>SEZG586</t>
+  </si>
+  <si>
+    <t>EDGE COMPUTING</t>
+  </si>
+  <si>
+    <t>17/03/2024 (FN)</t>
+  </si>
+  <si>
+    <t>31/03/2024 (FN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19/05/2024 (FN) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">26/05/2024 (FN) </t>
+  </si>
+  <si>
+    <t>SEZG569</t>
+  </si>
+  <si>
+    <t>BLOCKCHAIN TECHNOLOGIES &amp; SYS</t>
+  </si>
+  <si>
+    <t>17/03/2024 (AN)</t>
+  </si>
+  <si>
+    <t>31/03/2024 (AN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19/05/2024 (AN) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">26/05/2024 (AN) </t>
+  </si>
+  <si>
+    <t>SEZG514</t>
+  </si>
+  <si>
+    <t>INTRODUCTION TO DEVOPS</t>
+  </si>
+  <si>
+    <t>17/03/2024 (EN)</t>
+  </si>
+  <si>
+    <t>31/03/2024 (EN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19/05/2024 (EN) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">26/05/2024 (EN) </t>
+  </si>
+  <si>
+    <t>SEZG512</t>
+  </si>
+  <si>
+    <t>OBJ ORI ANAL &amp; DESIGN</t>
+  </si>
+  <si>
+    <t>SEZC420</t>
+  </si>
+  <si>
+    <t>DATA VISUALIZATION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,12 +347,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -357,7 +414,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -373,16 +430,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -709,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -795,7 +848,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>24</v>
@@ -916,10 +969,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K9"/>
+  <dimension ref="A2:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:K6"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -949,23 +1002,23 @@
       <c r="E3" s="6">
         <v>416</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="12" t="s">
+      <c r="F3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="J3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="K3" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -981,28 +1034,28 @@
       <c r="E4" s="6">
         <v>410</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="10" t="s">
+      <c r="F4" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="J4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="K4" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -1013,94 +1066,160 @@
       <c r="E5" s="6">
         <v>419</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="10" t="s">
+      <c r="F5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="J5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="K5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="11" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10" t="s">
+      <c r="E6" s="7"/>
+      <c r="F6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="4"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="G8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F10" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F11" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F12" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G3">

--- a/SubjectExplanation.xlsx
+++ b/SubjectExplanation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="82">
   <si>
     <t>Subject Name</t>
   </si>
@@ -315,6 +315,12 @@
   </si>
   <si>
     <t>DATA VISUALIZATION</t>
+  </si>
+  <si>
+    <t>EC2</t>
+  </si>
+  <si>
+    <t>EC3</t>
   </si>
 </sst>
 </file>
@@ -762,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -972,7 +978,7 @@
   <dimension ref="A2:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -988,6 +994,12 @@
       <c r="B2" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="H2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
